--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Оружие</t>
   </si>
@@ -37,6 +37,12 @@
     <t xml:space="preserve">Робин гуд</t>
   </si>
   <si>
+    <t xml:space="preserve">черный рыцарь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">я использую ВСЁ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Большой лук драконоборца</t>
   </si>
   <si>
@@ -53,6 +59,66 @@
   </si>
   <si>
     <t xml:space="preserve">Клинок Хаоса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нож бандита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кинжал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Парирующий кинжал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Призрачный клинок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кинжал Присциллы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тёмный Серебряный След</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Большой меч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двуручный меч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Демоническое мачете</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Большой меч Черного Рыцаря</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Большой меч дракона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Легкий арбалет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тяжелый арбалет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Меткий арбалет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авелин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Асторский прямой меч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Меч дракона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Балдерский меч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Большой лунный меч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Меч Черного Рыцаря</t>
   </si>
 </sst>
 </file>
@@ -161,13 +227,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:EB259"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.234375" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.5"/>
@@ -189,10 +255,16 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -204,12 +276,18 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -221,12 +299,18 @@
         <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -239,11 +323,17 @@
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -256,11 +346,17 @@
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -273,11 +369,17 @@
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -290,6 +392,472 @@
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
